--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H2">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I2">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J2">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N2">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O2">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P2">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q2">
-        <v>2448.111743095833</v>
+        <v>145.775754810774</v>
       </c>
       <c r="R2">
-        <v>22033.0056878625</v>
+        <v>1311.981793296966</v>
       </c>
       <c r="S2">
-        <v>0.2060047083413473</v>
+        <v>0.03608551846913226</v>
       </c>
       <c r="T2">
-        <v>0.2060047083413473</v>
+        <v>0.03608551846913226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H3">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I3">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J3">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>196.907845</v>
       </c>
       <c r="O3">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P3">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q3">
-        <v>5823.412774315972</v>
+        <v>1716.026861878685</v>
       </c>
       <c r="R3">
-        <v>52410.71496884375</v>
+        <v>15444.24175690817</v>
       </c>
       <c r="S3">
-        <v>0.4900309201601982</v>
+        <v>0.4247875039181325</v>
       </c>
       <c r="T3">
-        <v>0.4900309201601982</v>
+        <v>0.4247875039181324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H4">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I4">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J4">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N4">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O4">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P4">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q4">
-        <v>849.3378566055555</v>
+        <v>243.598469976047</v>
       </c>
       <c r="R4">
-        <v>7644.040709450001</v>
+        <v>2192.386229784423</v>
       </c>
       <c r="S4">
-        <v>0.07147042937346969</v>
+        <v>0.06030067962113084</v>
       </c>
       <c r="T4">
-        <v>0.07147042937346969</v>
+        <v>0.06030067962113084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N5">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O5">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P5">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q5">
-        <v>494.3480717313</v>
+        <v>99.8942289741</v>
       </c>
       <c r="R5">
-        <v>4449.1326455817</v>
+        <v>899.0480607669001</v>
       </c>
       <c r="S5">
-        <v>0.04159860374973388</v>
+        <v>0.02472794635351937</v>
       </c>
       <c r="T5">
-        <v>0.04159860374973388</v>
+        <v>0.02472794635351937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>196.907845</v>
       </c>
       <c r="O6">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P6">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q6">
         <v>1175.92380494775</v>
@@ -818,10 +818,10 @@
         <v>10583.31424452975</v>
       </c>
       <c r="S6">
-        <v>0.09895211734231107</v>
+        <v>0.2910896962037073</v>
       </c>
       <c r="T6">
-        <v>0.09895211734231107</v>
+        <v>0.2910896962037072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N7">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O7">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P7">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q7">
-        <v>171.5070943332</v>
+        <v>166.92817930605</v>
       </c>
       <c r="R7">
-        <v>1543.5638489988</v>
+        <v>1502.35361375445</v>
       </c>
       <c r="S7">
-        <v>0.01443204912775084</v>
+        <v>0.04132161692584761</v>
       </c>
       <c r="T7">
-        <v>0.01443204912775084</v>
+        <v>0.04132161692584761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H8">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I8">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J8">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N8">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O8">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P8">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q8">
-        <v>247.2371497465286</v>
+        <v>34.036674952918</v>
       </c>
       <c r="R8">
-        <v>2225.134347718758</v>
+        <v>306.330074576262</v>
       </c>
       <c r="S8">
-        <v>0.02080461280753142</v>
+        <v>0.008425482442095357</v>
       </c>
       <c r="T8">
-        <v>0.02080461280753142</v>
+        <v>0.008425482442095357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H9">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I9">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J9">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>196.907845</v>
       </c>
       <c r="O9">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P9">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q9">
-        <v>588.1120337663627</v>
+        <v>400.6691550598227</v>
       </c>
       <c r="R9">
-        <v>5293.008303897265</v>
+        <v>3606.022395538405</v>
       </c>
       <c r="S9">
-        <v>0.04948869198056598</v>
+        <v>0.09918215970612328</v>
       </c>
       <c r="T9">
-        <v>0.04948869198056598</v>
+        <v>0.09918215970612326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H10">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I10">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J10">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N10">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O10">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P10">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q10">
-        <v>85.77544363781244</v>
+        <v>56.87696114052344</v>
       </c>
       <c r="R10">
-        <v>771.978992740312</v>
+        <v>511.8926502647109</v>
       </c>
       <c r="S10">
-        <v>0.007217867117091606</v>
+        <v>0.01407939636031153</v>
       </c>
       <c r="T10">
-        <v>0.007217867117091606</v>
+        <v>0.01407939636031152</v>
       </c>
     </row>
   </sheetData>
